--- a/dataset/sql_datasets/medal.xlsx
+++ b/dataset/sql_datasets/medal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B91A87-6FD9-4F67-B64F-032063035EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1CE00E-0844-43E6-9A69-0554C0517468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,20 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>idMedal</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D985"/>
+  <dimension ref="A1:D984"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,22 +367,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -409,7 +396,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -423,7 +410,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -437,7 +424,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -451,7 +438,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -465,7 +452,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -479,7 +466,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -493,7 +480,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -507,7 +494,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -521,7 +508,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -535,7 +522,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -549,7 +536,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -563,7 +550,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -577,7 +564,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -591,7 +578,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -605,7 +592,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -619,7 +606,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -633,7 +620,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -647,7 +634,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -661,7 +648,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -675,7 +662,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -689,7 +676,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -703,7 +690,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -717,7 +704,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -731,7 +718,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -745,7 +732,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -759,7 +746,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -773,7 +760,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -787,7 +774,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -801,7 +788,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -815,7 +802,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -829,7 +816,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -843,7 +830,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -857,7 +844,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -871,7 +858,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -885,7 +872,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -899,7 +886,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -913,7 +900,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -927,7 +914,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -941,7 +928,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -955,7 +942,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -969,7 +956,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -983,7 +970,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -997,7 +984,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1011,7 +998,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1025,7 +1012,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1039,7 +1026,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1053,7 +1040,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1067,7 +1054,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1081,7 +1068,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1095,7 +1082,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1109,7 +1096,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1123,7 +1110,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1137,7 +1124,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1151,7 +1138,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1165,7 +1152,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1179,7 +1166,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1193,7 +1180,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1207,7 +1194,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1221,7 +1208,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1235,7 +1222,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1249,7 +1236,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1263,7 +1250,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1277,7 +1264,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1291,7 +1278,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1305,7 +1292,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1319,7 +1306,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1333,7 +1320,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1347,7 +1334,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1361,7 +1348,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1375,7 +1362,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1389,7 +1376,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1403,7 +1390,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1417,7 +1404,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1431,7 +1418,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1445,7 +1432,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1459,7 +1446,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1473,7 +1460,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1487,7 +1474,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1501,7 +1488,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1515,7 +1502,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1529,7 +1516,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1543,7 +1530,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1557,7 +1544,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1571,7 +1558,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1585,7 +1572,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1599,7 +1586,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1613,7 +1600,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1627,7 +1614,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1641,7 +1628,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1655,7 +1642,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1669,7 +1656,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1683,7 +1670,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1697,7 +1684,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1711,7 +1698,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1725,7 +1712,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1739,7 +1726,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1753,7 +1740,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1767,7 +1754,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1781,7 +1768,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1795,7 +1782,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1809,7 +1796,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1823,7 +1810,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1837,7 +1824,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1851,7 +1838,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1865,7 +1852,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1879,7 +1866,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1893,7 +1880,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1907,7 +1894,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1921,7 +1908,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1935,7 +1922,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -1949,7 +1936,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1963,7 +1950,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -1977,7 +1964,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1991,7 +1978,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2005,7 +1992,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2019,7 +2006,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2033,7 +2020,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2047,7 +2034,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2061,7 +2048,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2075,7 +2062,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2089,7 +2076,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2103,7 +2090,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2117,7 +2104,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2131,7 +2118,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2145,7 +2132,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2159,7 +2146,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2173,7 +2160,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2187,7 +2174,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2201,7 +2188,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2215,7 +2202,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2229,7 +2216,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2243,7 +2230,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2257,7 +2244,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2271,7 +2258,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2285,7 +2272,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2299,7 +2286,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2313,7 +2300,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2327,7 +2314,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2341,7 +2328,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2355,7 +2342,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2369,7 +2356,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2383,7 +2370,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2397,7 +2384,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2411,7 +2398,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2425,7 +2412,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2439,7 +2426,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2453,7 +2440,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2467,7 +2454,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2481,7 +2468,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2495,7 +2482,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2509,7 +2496,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2523,7 +2510,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -2537,7 +2524,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2551,7 +2538,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2565,7 +2552,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -2579,7 +2566,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2593,7 +2580,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -2607,7 +2594,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -2621,7 +2608,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -2635,7 +2622,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -2649,7 +2636,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -2663,7 +2650,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -2677,7 +2664,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -2691,7 +2678,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -2705,7 +2692,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -2719,7 +2706,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -2733,7 +2720,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -2747,7 +2734,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -2761,7 +2748,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -2775,7 +2762,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -2789,7 +2776,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -2803,7 +2790,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -2817,7 +2804,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -2831,7 +2818,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -2845,7 +2832,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -2859,7 +2846,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -2873,7 +2860,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -2887,7 +2874,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -2901,7 +2888,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -2915,7 +2902,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -2929,7 +2916,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -2943,7 +2930,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -2957,7 +2944,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -2971,7 +2958,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -2985,7 +2972,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -2999,7 +2986,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -3013,7 +3000,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -3027,7 +3014,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3041,7 +3028,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3055,7 +3042,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3069,7 +3056,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3083,7 +3070,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3097,7 +3084,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3111,7 +3098,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3125,7 +3112,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -3139,7 +3126,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3153,7 +3140,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3167,7 +3154,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3181,7 +3168,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3195,7 +3182,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -3209,7 +3196,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3223,7 +3210,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3237,7 +3224,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3251,7 +3238,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -3265,7 +3252,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3279,7 +3266,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3293,7 +3280,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3307,7 +3294,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3321,7 +3308,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3335,7 +3322,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -3349,7 +3336,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3363,7 +3350,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -3377,7 +3364,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3391,7 +3378,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -3405,7 +3392,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -3419,7 +3406,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -3433,7 +3420,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -3447,7 +3434,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3461,7 +3448,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3475,7 +3462,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3489,7 +3476,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -3503,7 +3490,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -3517,7 +3504,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3531,7 +3518,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -3545,7 +3532,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3559,7 +3546,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -3573,7 +3560,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -3587,7 +3574,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -3601,7 +3588,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -3615,7 +3602,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -3629,7 +3616,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -3643,7 +3630,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -3657,7 +3644,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3671,7 +3658,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -3685,7 +3672,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -3699,7 +3686,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -3713,7 +3700,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -3727,7 +3714,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -3741,7 +3728,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -3755,7 +3742,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -3769,7 +3756,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -3783,7 +3770,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -3797,7 +3784,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -3811,7 +3798,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -3825,7 +3812,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -3839,7 +3826,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -3853,7 +3840,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -3867,7 +3854,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -3881,7 +3868,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -3895,7 +3882,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -3909,7 +3896,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -3923,7 +3910,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -3937,7 +3924,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -3951,7 +3938,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -3965,7 +3952,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -3979,7 +3966,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -3993,7 +3980,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -4007,7 +3994,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4021,7 +4008,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4035,7 +4022,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4049,7 +4036,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4063,7 +4050,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4077,7 +4064,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4091,7 +4078,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -4105,7 +4092,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4119,7 +4106,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -4133,7 +4120,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -4147,7 +4134,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -4161,7 +4148,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -4175,7 +4162,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -4189,7 +4176,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4203,7 +4190,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -4217,7 +4204,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -4231,7 +4218,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -4245,7 +4232,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -4259,7 +4246,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -4273,7 +4260,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -4287,7 +4274,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4301,7 +4288,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -4315,7 +4302,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -4329,7 +4316,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -4343,7 +4330,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -4357,7 +4344,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -4371,7 +4358,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -4385,7 +4372,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -4399,7 +4386,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -4413,7 +4400,7 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -4427,7 +4414,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -4441,7 +4428,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -4455,7 +4442,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -4469,7 +4456,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -4483,7 +4470,7 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -4497,7 +4484,7 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -4511,7 +4498,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -4525,7 +4512,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -4539,7 +4526,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -4553,7 +4540,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -4567,7 +4554,7 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -4581,7 +4568,7 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -4595,7 +4582,7 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -4609,7 +4596,7 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -4623,7 +4610,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -4637,7 +4624,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -4651,7 +4638,7 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -4665,7 +4652,7 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -4679,7 +4666,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -4693,7 +4680,7 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -4707,7 +4694,7 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -4721,7 +4708,7 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -4735,7 +4722,7 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -4749,7 +4736,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -4763,7 +4750,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -4777,7 +4764,7 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -4791,7 +4778,7 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -4805,7 +4792,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -4819,7 +4806,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -4833,7 +4820,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -4847,7 +4834,7 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -4861,7 +4848,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -4875,7 +4862,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -4889,7 +4876,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -4903,7 +4890,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -4917,7 +4904,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -4931,7 +4918,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -4945,7 +4932,7 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -4959,7 +4946,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -4973,7 +4960,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -4987,7 +4974,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -5001,7 +4988,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -5015,7 +5002,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -5029,7 +5016,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -5043,7 +5030,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -5057,7 +5044,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -5071,7 +5058,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -5085,7 +5072,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -5099,7 +5086,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -5113,7 +5100,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -5127,7 +5114,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -5141,7 +5128,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -5155,7 +5142,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -5169,7 +5156,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -5183,7 +5170,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -5197,7 +5184,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -5211,7 +5198,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -5225,7 +5212,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -5239,7 +5226,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -5253,7 +5240,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -5267,7 +5254,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -5281,7 +5268,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -5295,7 +5282,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -5309,7 +5296,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -5323,7 +5310,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -5337,7 +5324,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -5351,7 +5338,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -5365,7 +5352,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -5379,7 +5366,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -5393,7 +5380,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -5407,7 +5394,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -5421,7 +5408,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -5435,7 +5422,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -5449,7 +5436,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -5463,7 +5450,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -5477,7 +5464,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -5491,7 +5478,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -5505,7 +5492,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -5519,7 +5506,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -5533,21 +5520,21 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B369">
         <v>0</v>
       </c>
       <c r="C369">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -5561,7 +5548,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -5575,7 +5562,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -5589,7 +5576,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -5603,7 +5590,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -5617,7 +5604,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -5631,7 +5618,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -5645,7 +5632,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -5659,7 +5646,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -5673,7 +5660,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -5687,7 +5674,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -5701,7 +5688,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -5715,7 +5702,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -5729,7 +5716,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -5743,7 +5730,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -5757,7 +5744,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -5771,7 +5758,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -5785,7 +5772,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -5799,7 +5786,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -5813,7 +5800,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -5827,7 +5814,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -5841,7 +5828,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -5855,7 +5842,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -5869,7 +5856,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -5883,7 +5870,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -5897,7 +5884,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -5911,7 +5898,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -5925,7 +5912,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -5939,7 +5926,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -5953,7 +5940,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -5967,7 +5954,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -5981,7 +5968,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -5995,7 +5982,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -6009,7 +5996,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -6023,7 +6010,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6037,7 +6024,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -6051,7 +6038,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -6065,7 +6052,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -6079,7 +6066,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -6093,7 +6080,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -6107,7 +6094,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -6121,7 +6108,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -6135,7 +6122,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -6149,7 +6136,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -6163,7 +6150,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -6177,7 +6164,7 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -6191,7 +6178,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -6205,7 +6192,7 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -6219,7 +6206,7 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -6233,7 +6220,7 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -6247,7 +6234,7 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -6261,7 +6248,7 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -6275,7 +6262,7 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -6289,7 +6276,7 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6303,7 +6290,7 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -6317,7 +6304,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6331,7 +6318,7 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -6345,7 +6332,7 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -6359,7 +6346,7 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -6373,7 +6360,7 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -6387,7 +6374,7 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -6401,7 +6388,7 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -6415,7 +6402,7 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -6429,7 +6416,7 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -6443,7 +6430,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -6457,7 +6444,7 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -6471,7 +6458,7 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -6485,7 +6472,7 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -6499,7 +6486,7 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B438">
         <v>0</v>
@@ -6513,7 +6500,7 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -6527,7 +6514,7 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -6541,7 +6528,7 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -6555,7 +6542,7 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -6569,7 +6556,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -6583,7 +6570,7 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B444">
         <v>0</v>
@@ -6597,7 +6584,7 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -6611,7 +6598,7 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B446">
         <v>0</v>
@@ -6625,7 +6612,7 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -6639,7 +6626,7 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -6653,7 +6640,7 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -6667,7 +6654,7 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -6681,7 +6668,7 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -6695,7 +6682,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -6709,7 +6696,7 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B453">
         <v>0</v>
@@ -6723,7 +6710,7 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -6737,7 +6724,7 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -6751,7 +6738,7 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -6765,7 +6752,7 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -6779,7 +6766,7 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -6793,7 +6780,7 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -6807,7 +6794,7 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B460">
         <v>0</v>
@@ -6821,7 +6808,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -6835,7 +6822,7 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -6849,7 +6836,7 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -6863,7 +6850,7 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -6877,7 +6864,7 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -6891,7 +6878,7 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -6905,7 +6892,7 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -6919,7 +6906,7 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -6933,7 +6920,7 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -6947,7 +6934,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -6961,7 +6948,7 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -6975,7 +6962,7 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -6989,7 +6976,7 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -7003,7 +6990,7 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -7017,7 +7004,7 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -7031,7 +7018,7 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B476">
         <v>0</v>
@@ -7045,7 +7032,7 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -7059,7 +7046,7 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -7073,7 +7060,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -7087,7 +7074,7 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -7101,7 +7088,7 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -7115,7 +7102,7 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -7129,7 +7116,7 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -7143,7 +7130,7 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B484">
         <v>0</v>
@@ -7157,7 +7144,7 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -7171,7 +7158,7 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -7185,7 +7172,7 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -7199,7 +7186,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -7213,7 +7200,7 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -7227,7 +7214,7 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B490">
         <v>0</v>
@@ -7241,7 +7228,7 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -7255,7 +7242,7 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -7269,7 +7256,7 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -7283,7 +7270,7 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B494">
         <v>0</v>
@@ -7297,7 +7284,7 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -7311,7 +7298,7 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B496">
         <v>0</v>
@@ -7325,7 +7312,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -7339,7 +7326,7 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B498">
         <v>0</v>
@@ -7353,7 +7340,7 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B499">
         <v>0</v>
@@ -7367,7 +7354,7 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -7381,7 +7368,7 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -7395,7 +7382,7 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -7409,7 +7396,7 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -7423,7 +7410,7 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B504">
         <v>0</v>
@@ -7437,7 +7424,7 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B505">
         <v>0</v>
@@ -7451,7 +7438,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B506">
         <v>0</v>
@@ -7465,7 +7452,7 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B507">
         <v>0</v>
@@ -7479,7 +7466,7 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B508">
         <v>0</v>
@@ -7493,7 +7480,7 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B509">
         <v>0</v>
@@ -7507,7 +7494,7 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B510">
         <v>0</v>
@@ -7521,7 +7508,7 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B511">
         <v>0</v>
@@ -7535,7 +7522,7 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B512">
         <v>0</v>
@@ -7549,7 +7536,7 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B513">
         <v>0</v>
@@ -7563,7 +7550,7 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B514">
         <v>0</v>
@@ -7577,7 +7564,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B515">
         <v>0</v>
@@ -7591,7 +7578,7 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B516">
         <v>0</v>
@@ -7605,7 +7592,7 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B517">
         <v>0</v>
@@ -7619,7 +7606,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B518">
         <v>0</v>
@@ -7633,7 +7620,7 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B519">
         <v>0</v>
@@ -7647,7 +7634,7 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B520">
         <v>0</v>
@@ -7661,7 +7648,7 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B521">
         <v>0</v>
@@ -7675,7 +7662,7 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B522">
         <v>0</v>
@@ -7689,7 +7676,7 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B523">
         <v>0</v>
@@ -7703,7 +7690,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B524">
         <v>0</v>
@@ -7717,7 +7704,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B525">
         <v>0</v>
@@ -7731,7 +7718,7 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B526">
         <v>0</v>
@@ -7745,7 +7732,7 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B527">
         <v>0</v>
@@ -7759,7 +7746,7 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B528">
         <v>0</v>
@@ -7773,7 +7760,7 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B529">
         <v>0</v>
@@ -7787,7 +7774,7 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B530">
         <v>0</v>
@@ -7801,7 +7788,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B531">
         <v>0</v>
@@ -7815,7 +7802,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B532">
         <v>0</v>
@@ -7829,7 +7816,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B533">
         <v>0</v>
@@ -7843,7 +7830,7 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B534">
         <v>0</v>
@@ -7857,7 +7844,7 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B535">
         <v>0</v>
@@ -7871,7 +7858,7 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B536">
         <v>0</v>
@@ -7885,7 +7872,7 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B537">
         <v>0</v>
@@ -7899,7 +7886,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B538">
         <v>0</v>
@@ -7913,7 +7900,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B539">
         <v>0</v>
@@ -7927,7 +7914,7 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B540">
         <v>0</v>
@@ -7941,7 +7928,7 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B541">
         <v>0</v>
@@ -7955,7 +7942,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B542">
         <v>0</v>
@@ -7969,7 +7956,7 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B543">
         <v>0</v>
@@ -7983,7 +7970,7 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B544">
         <v>0</v>
@@ -7997,7 +7984,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B545">
         <v>0</v>
@@ -8011,7 +7998,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B546">
         <v>0</v>
@@ -8025,7 +8012,7 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B547">
         <v>0</v>
@@ -8039,7 +8026,7 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B548">
         <v>0</v>
@@ -8053,7 +8040,7 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B549">
         <v>0</v>
@@ -8067,7 +8054,7 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B550">
         <v>0</v>
@@ -8081,7 +8068,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B551">
         <v>0</v>
@@ -8095,7 +8082,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B552">
         <v>0</v>
@@ -8109,7 +8096,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B553">
         <v>0</v>
@@ -8123,7 +8110,7 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B554">
         <v>0</v>
@@ -8137,7 +8124,7 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B555">
         <v>0</v>
@@ -8151,7 +8138,7 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B556">
         <v>0</v>
@@ -8165,7 +8152,7 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B557">
         <v>0</v>
@@ -8179,7 +8166,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B558">
         <v>0</v>
@@ -8193,7 +8180,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B559">
         <v>0</v>
@@ -8207,7 +8194,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B560">
         <v>0</v>
@@ -8221,7 +8208,7 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B561">
         <v>0</v>
@@ -8235,7 +8222,7 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B562">
         <v>0</v>
@@ -8249,7 +8236,7 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B563">
         <v>0</v>
@@ -8263,7 +8250,7 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B564">
         <v>0</v>
@@ -8277,7 +8264,7 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B565">
         <v>0</v>
@@ -8291,7 +8278,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B566">
         <v>0</v>
@@ -8305,7 +8292,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B567">
         <v>0</v>
@@ -8319,7 +8306,7 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B568">
         <v>0</v>
@@ -8333,7 +8320,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B569">
         <v>0</v>
@@ -8347,7 +8334,7 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B570">
         <v>0</v>
@@ -8361,7 +8348,7 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B571">
         <v>0</v>
@@ -8375,7 +8362,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B572">
         <v>0</v>
@@ -8389,7 +8376,7 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B573">
         <v>0</v>
@@ -8403,7 +8390,7 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B574">
         <v>0</v>
@@ -8417,7 +8404,7 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B575">
         <v>0</v>
@@ -8431,7 +8418,7 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B576">
         <v>0</v>
@@ -8445,7 +8432,7 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B577">
         <v>0</v>
@@ -8459,7 +8446,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B578">
         <v>0</v>
@@ -8473,7 +8460,7 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B579">
         <v>0</v>
@@ -8487,7 +8474,7 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B580">
         <v>0</v>
@@ -8501,7 +8488,7 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B581">
         <v>0</v>
@@ -8515,7 +8502,7 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B582">
         <v>0</v>
@@ -8529,7 +8516,7 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B583">
         <v>0</v>
@@ -8543,7 +8530,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -8557,7 +8544,7 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -8571,7 +8558,7 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -8585,7 +8572,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -8599,7 +8586,7 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B588">
         <v>0</v>
@@ -8613,7 +8600,7 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B589">
         <v>0</v>
@@ -8627,7 +8614,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B590">
         <v>0</v>
@@ -8641,7 +8628,7 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B591">
         <v>0</v>
@@ -8655,7 +8642,7 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B592">
         <v>0</v>
@@ -8669,7 +8656,7 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B593">
         <v>0</v>
@@ -8683,7 +8670,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B594">
         <v>0</v>
@@ -8697,7 +8684,7 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B595">
         <v>0</v>
@@ -8711,7 +8698,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B596">
         <v>0</v>
@@ -8725,7 +8712,7 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B597">
         <v>0</v>
@@ -8739,7 +8726,7 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B598">
         <v>0</v>
@@ -8753,7 +8740,7 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B599">
         <v>0</v>
@@ -8767,7 +8754,7 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B600">
         <v>0</v>
@@ -8781,7 +8768,7 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B601">
         <v>0</v>
@@ -8795,7 +8782,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B602">
         <v>0</v>
@@ -8809,7 +8796,7 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B603">
         <v>0</v>
@@ -8823,7 +8810,7 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B604">
         <v>0</v>
@@ -8837,7 +8824,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B605">
         <v>0</v>
@@ -8851,7 +8838,7 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B606">
         <v>0</v>
@@ -8865,7 +8852,7 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B607">
         <v>0</v>
@@ -8879,7 +8866,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B608">
         <v>0</v>
@@ -8893,7 +8880,7 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B609">
         <v>0</v>
@@ -8907,7 +8894,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B610">
         <v>0</v>
@@ -8921,7 +8908,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B611">
         <v>0</v>
@@ -8935,7 +8922,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B612">
         <v>0</v>
@@ -8949,7 +8936,7 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B613">
         <v>0</v>
@@ -8963,7 +8950,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B614">
         <v>0</v>
@@ -8977,7 +8964,7 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B615">
         <v>0</v>
@@ -8991,7 +8978,7 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B616">
         <v>0</v>
@@ -9005,7 +8992,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B617">
         <v>0</v>
@@ -9019,7 +9006,7 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B618">
         <v>0</v>
@@ -9033,7 +9020,7 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B619">
         <v>0</v>
@@ -9047,7 +9034,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B620">
         <v>0</v>
@@ -9061,7 +9048,7 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B621">
         <v>0</v>
@@ -9075,7 +9062,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B622">
         <v>0</v>
@@ -9089,7 +9076,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B623">
         <v>0</v>
@@ -9103,7 +9090,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B624">
         <v>0</v>
@@ -9117,7 +9104,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B625">
         <v>0</v>
@@ -9131,7 +9118,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B626">
         <v>0</v>
@@ -9145,7 +9132,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B627">
         <v>0</v>
@@ -9159,7 +9146,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B628">
         <v>0</v>
@@ -9173,7 +9160,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B629">
         <v>0</v>
@@ -9187,7 +9174,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B630">
         <v>0</v>
@@ -9201,7 +9188,7 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B631">
         <v>0</v>
@@ -9215,7 +9202,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B632">
         <v>0</v>
@@ -9229,7 +9216,7 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B633">
         <v>0</v>
@@ -9243,7 +9230,7 @@
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B634">
         <v>0</v>
@@ -9257,7 +9244,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B635">
         <v>0</v>
@@ -9271,7 +9258,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B636">
         <v>0</v>
@@ -9285,7 +9272,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B637">
         <v>0</v>
@@ -9299,7 +9286,7 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B638">
         <v>0</v>
@@ -9313,7 +9300,7 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B639">
         <v>0</v>
@@ -9327,7 +9314,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B640">
         <v>0</v>
@@ -9341,7 +9328,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B641">
         <v>0</v>
@@ -9355,7 +9342,7 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B642">
         <v>0</v>
@@ -9369,7 +9356,7 @@
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B643">
         <v>0</v>
@@ -9383,7 +9370,7 @@
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B644">
         <v>0</v>
@@ -9397,7 +9384,7 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B645">
         <v>0</v>
@@ -9411,7 +9398,7 @@
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B646">
         <v>0</v>
@@ -9425,7 +9412,7 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B647">
         <v>0</v>
@@ -9439,7 +9426,7 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B648">
         <v>0</v>
@@ -9453,7 +9440,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B649">
         <v>0</v>
@@ -9467,7 +9454,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B650">
         <v>0</v>
@@ -9481,7 +9468,7 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B651">
         <v>0</v>
@@ -9495,7 +9482,7 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B652">
         <v>0</v>
@@ -9509,7 +9496,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B653">
         <v>0</v>
@@ -9523,7 +9510,7 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B654">
         <v>0</v>
@@ -9537,7 +9524,7 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B655">
         <v>0</v>
@@ -9551,7 +9538,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B656">
         <v>0</v>
@@ -9565,7 +9552,7 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B657">
         <v>0</v>
@@ -9579,7 +9566,7 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B658">
         <v>0</v>
@@ -9593,7 +9580,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B659">
         <v>0</v>
@@ -9607,7 +9594,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B660">
         <v>0</v>
@@ -9621,7 +9608,7 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B661">
         <v>0</v>
@@ -9635,7 +9622,7 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B662">
         <v>0</v>
@@ -9649,7 +9636,7 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B663">
         <v>0</v>
@@ -9663,7 +9650,7 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B664">
         <v>0</v>
@@ -9677,7 +9664,7 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B665">
         <v>0</v>
@@ -9691,7 +9678,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B666">
         <v>0</v>
@@ -9705,7 +9692,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B667">
         <v>0</v>
@@ -9719,7 +9706,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B668">
         <v>0</v>
@@ -9733,7 +9720,7 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B669">
         <v>0</v>
@@ -9747,7 +9734,7 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B670">
         <v>0</v>
@@ -9761,7 +9748,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B671">
         <v>0</v>
@@ -9775,7 +9762,7 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B672">
         <v>0</v>
@@ -9789,7 +9776,7 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B673">
         <v>0</v>
@@ -9803,7 +9790,7 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B674">
         <v>0</v>
@@ -9817,7 +9804,7 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B675">
         <v>0</v>
@@ -9831,13 +9818,13 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -9845,7 +9832,7 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B677">
         <v>1</v>
@@ -9859,7 +9846,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B678">
         <v>1</v>
@@ -9873,7 +9860,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B679">
         <v>1</v>
@@ -9887,7 +9874,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -9901,7 +9888,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B681">
         <v>1</v>
@@ -9915,7 +9902,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B682">
         <v>1</v>
@@ -9929,7 +9916,7 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -9943,7 +9930,7 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -9957,7 +9944,7 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -9971,7 +9958,7 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -9985,7 +9972,7 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -9999,7 +9986,7 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B688">
         <v>1</v>
@@ -10013,7 +10000,7 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -10027,7 +10014,7 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -10041,7 +10028,7 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -10055,7 +10042,7 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -10069,7 +10056,7 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -10083,7 +10070,7 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -10097,7 +10084,7 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -10111,7 +10098,7 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B696">
         <v>1</v>
@@ -10125,7 +10112,7 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -10139,7 +10126,7 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -10153,7 +10140,7 @@
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -10167,7 +10154,7 @@
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -10181,7 +10168,7 @@
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -10195,7 +10182,7 @@
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -10209,7 +10196,7 @@
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -10223,7 +10210,7 @@
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B704">
         <v>1</v>
@@ -10237,7 +10224,7 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -10251,7 +10238,7 @@
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B706">
         <v>1</v>
@@ -10265,7 +10252,7 @@
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B707">
         <v>1</v>
@@ -10279,7 +10266,7 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -10293,7 +10280,7 @@
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -10307,7 +10294,7 @@
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -10321,7 +10308,7 @@
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -10335,7 +10322,7 @@
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -10349,7 +10336,7 @@
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -10363,7 +10350,7 @@
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -10377,7 +10364,7 @@
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -10391,7 +10378,7 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -10405,7 +10392,7 @@
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -10419,7 +10406,7 @@
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -10433,7 +10420,7 @@
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B719">
         <v>1</v>
@@ -10447,7 +10434,7 @@
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B720">
         <v>1</v>
@@ -10461,7 +10448,7 @@
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -10475,7 +10462,7 @@
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -10489,7 +10476,7 @@
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -10503,7 +10490,7 @@
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -10517,7 +10504,7 @@
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -10531,7 +10518,7 @@
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B726">
         <v>1</v>
@@ -10545,7 +10532,7 @@
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -10559,7 +10546,7 @@
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -10573,7 +10560,7 @@
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -10587,7 +10574,7 @@
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -10601,7 +10588,7 @@
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -10615,7 +10602,7 @@
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -10629,7 +10616,7 @@
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -10643,7 +10630,7 @@
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -10657,7 +10644,7 @@
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -10671,7 +10658,7 @@
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B736">
         <v>1</v>
@@ -10685,7 +10672,7 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B737">
         <v>1</v>
@@ -10699,7 +10686,7 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -10713,7 +10700,7 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -10727,7 +10714,7 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -10741,7 +10728,7 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -10755,7 +10742,7 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B742">
         <v>1</v>
@@ -10769,7 +10756,7 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -10783,7 +10770,7 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -10797,7 +10784,7 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B745">
         <v>1</v>
@@ -10811,7 +10798,7 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -10825,7 +10812,7 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -10839,7 +10826,7 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B748">
         <v>1</v>
@@ -10853,7 +10840,7 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -10867,7 +10854,7 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -10881,7 +10868,7 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -10895,7 +10882,7 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -10909,7 +10896,7 @@
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -10923,7 +10910,7 @@
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B754">
         <v>1</v>
@@ -10937,7 +10924,7 @@
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B755">
         <v>1</v>
@@ -10951,7 +10938,7 @@
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -10965,7 +10952,7 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -10979,7 +10966,7 @@
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -10993,7 +10980,7 @@
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -11007,7 +10994,7 @@
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B760">
         <v>1</v>
@@ -11021,7 +11008,7 @@
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B761">
         <v>1</v>
@@ -11035,7 +11022,7 @@
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -11049,7 +11036,7 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B763">
         <v>1</v>
@@ -11063,7 +11050,7 @@
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B764">
         <v>1</v>
@@ -11077,7 +11064,7 @@
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B765">
         <v>1</v>
@@ -11091,7 +11078,7 @@
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B766">
         <v>1</v>
@@ -11105,7 +11092,7 @@
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B767">
         <v>1</v>
@@ -11119,7 +11106,7 @@
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B768">
         <v>1</v>
@@ -11133,7 +11120,7 @@
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B769">
         <v>1</v>
@@ -11147,7 +11134,7 @@
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B770">
         <v>1</v>
@@ -11161,7 +11148,7 @@
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B771">
         <v>1</v>
@@ -11175,7 +11162,7 @@
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B772">
         <v>1</v>
@@ -11189,7 +11176,7 @@
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B773">
         <v>1</v>
@@ -11203,7 +11190,7 @@
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -11217,7 +11204,7 @@
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B775">
         <v>1</v>
@@ -11231,7 +11218,7 @@
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B776">
         <v>1</v>
@@ -11245,7 +11232,7 @@
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B777">
         <v>1</v>
@@ -11259,7 +11246,7 @@
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B778">
         <v>1</v>
@@ -11273,7 +11260,7 @@
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B779">
         <v>1</v>
@@ -11287,7 +11274,7 @@
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B780">
         <v>1</v>
@@ -11301,7 +11288,7 @@
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B781">
         <v>1</v>
@@ -11315,7 +11302,7 @@
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B782">
         <v>1</v>
@@ -11329,7 +11316,7 @@
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B783">
         <v>1</v>
@@ -11343,7 +11330,7 @@
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B784">
         <v>1</v>
@@ -11357,7 +11344,7 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B785">
         <v>1</v>
@@ -11371,7 +11358,7 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B786">
         <v>1</v>
@@ -11385,7 +11372,7 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B787">
         <v>1</v>
@@ -11399,7 +11386,7 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B788">
         <v>1</v>
@@ -11413,7 +11400,7 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B789">
         <v>1</v>
@@ -11427,7 +11414,7 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B790">
         <v>1</v>
@@ -11441,7 +11428,7 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B791">
         <v>1</v>
@@ -11455,7 +11442,7 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B792">
         <v>1</v>
@@ -11469,7 +11456,7 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B793">
         <v>1</v>
@@ -11483,7 +11470,7 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B794">
         <v>1</v>
@@ -11497,7 +11484,7 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B795">
         <v>1</v>
@@ -11511,7 +11498,7 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B796">
         <v>1</v>
@@ -11525,7 +11512,7 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B797">
         <v>1</v>
@@ -11539,7 +11526,7 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B798">
         <v>1</v>
@@ -11553,7 +11540,7 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B799">
         <v>1</v>
@@ -11567,7 +11554,7 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B800">
         <v>1</v>
@@ -11581,7 +11568,7 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B801">
         <v>1</v>
@@ -11595,7 +11582,7 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B802">
         <v>1</v>
@@ -11609,7 +11596,7 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B803">
         <v>1</v>
@@ -11623,7 +11610,7 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B804">
         <v>1</v>
@@ -11637,7 +11624,7 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B805">
         <v>1</v>
@@ -11651,7 +11638,7 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B806">
         <v>1</v>
@@ -11665,7 +11652,7 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B807">
         <v>1</v>
@@ -11679,7 +11666,7 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B808">
         <v>1</v>
@@ -11693,7 +11680,7 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B809">
         <v>1</v>
@@ -11707,7 +11694,7 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B810">
         <v>1</v>
@@ -11721,7 +11708,7 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B811">
         <v>1</v>
@@ -11735,7 +11722,7 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B812">
         <v>1</v>
@@ -11749,7 +11736,7 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B813">
         <v>1</v>
@@ -11763,7 +11750,7 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B814">
         <v>1</v>
@@ -11777,7 +11764,7 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B815">
         <v>1</v>
@@ -11791,7 +11778,7 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B816">
         <v>1</v>
@@ -11805,7 +11792,7 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B817">
         <v>1</v>
@@ -11819,7 +11806,7 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B818">
         <v>1</v>
@@ -11833,7 +11820,7 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B819">
         <v>1</v>
@@ -11847,7 +11834,7 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B820">
         <v>1</v>
@@ -11861,7 +11848,7 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B821">
         <v>1</v>
@@ -11875,7 +11862,7 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B822">
         <v>1</v>
@@ -11889,7 +11876,7 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B823">
         <v>1</v>
@@ -11903,7 +11890,7 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B824">
         <v>1</v>
@@ -11917,7 +11904,7 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B825">
         <v>1</v>
@@ -11931,7 +11918,7 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B826">
         <v>1</v>
@@ -11945,7 +11932,7 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B827">
         <v>1</v>
@@ -11959,7 +11946,7 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B828">
         <v>1</v>
@@ -11973,7 +11960,7 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B829">
         <v>1</v>
@@ -11987,7 +11974,7 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B830">
         <v>1</v>
@@ -12001,7 +11988,7 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B831">
         <v>1</v>
@@ -12015,7 +12002,7 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B832">
         <v>1</v>
@@ -12029,7 +12016,7 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B833">
         <v>1</v>
@@ -12043,7 +12030,7 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B834">
         <v>1</v>
@@ -12057,7 +12044,7 @@
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B835">
         <v>1</v>
@@ -12071,7 +12058,7 @@
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B836">
         <v>1</v>
@@ -12085,7 +12072,7 @@
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B837">
         <v>1</v>
@@ -12099,7 +12086,7 @@
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B838">
         <v>1</v>
@@ -12113,7 +12100,7 @@
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B839">
         <v>1</v>
@@ -12127,7 +12114,7 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B840">
         <v>1</v>
@@ -12141,7 +12128,7 @@
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B841">
         <v>1</v>
@@ -12155,7 +12142,7 @@
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B842">
         <v>1</v>
@@ -12169,7 +12156,7 @@
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B843">
         <v>1</v>
@@ -12183,7 +12170,7 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B844">
         <v>1</v>
@@ -12197,7 +12184,7 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B845">
         <v>1</v>
@@ -12211,7 +12198,7 @@
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B846">
         <v>1</v>
@@ -12225,7 +12212,7 @@
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B847">
         <v>1</v>
@@ -12239,7 +12226,7 @@
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B848">
         <v>1</v>
@@ -12253,7 +12240,7 @@
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B849">
         <v>1</v>
@@ -12267,7 +12254,7 @@
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B850">
         <v>1</v>
@@ -12281,7 +12268,7 @@
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B851">
         <v>1</v>
@@ -12295,7 +12282,7 @@
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B852">
         <v>1</v>
@@ -12309,7 +12296,7 @@
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B853">
         <v>1</v>
@@ -12323,7 +12310,7 @@
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B854">
         <v>1</v>
@@ -12337,7 +12324,7 @@
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B855">
         <v>1</v>
@@ -12351,7 +12338,7 @@
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B856">
         <v>1</v>
@@ -12365,7 +12352,7 @@
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B857">
         <v>1</v>
@@ -12379,7 +12366,7 @@
     </row>
     <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B858">
         <v>1</v>
@@ -12393,7 +12380,7 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B859">
         <v>1</v>
@@ -12407,7 +12394,7 @@
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B860">
         <v>1</v>
@@ -12421,7 +12408,7 @@
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B861">
         <v>1</v>
@@ -12435,7 +12422,7 @@
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B862">
         <v>1</v>
@@ -12449,7 +12436,7 @@
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B863">
         <v>1</v>
@@ -12463,7 +12450,7 @@
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B864">
         <v>1</v>
@@ -12477,7 +12464,7 @@
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B865">
         <v>1</v>
@@ -12491,7 +12478,7 @@
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B866">
         <v>1</v>
@@ -12505,7 +12492,7 @@
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B867">
         <v>1</v>
@@ -12519,7 +12506,7 @@
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B868">
         <v>1</v>
@@ -12533,7 +12520,7 @@
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B869">
         <v>1</v>
@@ -12547,7 +12534,7 @@
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B870">
         <v>1</v>
@@ -12561,7 +12548,7 @@
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B871">
         <v>1</v>
@@ -12575,7 +12562,7 @@
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B872">
         <v>1</v>
@@ -12589,7 +12576,7 @@
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B873">
         <v>1</v>
@@ -12603,7 +12590,7 @@
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B874">
         <v>1</v>
@@ -12617,7 +12604,7 @@
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B875">
         <v>1</v>
@@ -12631,7 +12618,7 @@
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B876">
         <v>1</v>
@@ -12645,7 +12632,7 @@
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B877">
         <v>1</v>
@@ -12659,7 +12646,7 @@
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B878">
         <v>1</v>
@@ -12673,7 +12660,7 @@
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B879">
         <v>1</v>
@@ -12687,7 +12674,7 @@
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B880">
         <v>1</v>
@@ -12701,7 +12688,7 @@
     </row>
     <row r="881" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B881">
         <v>1</v>
@@ -12715,7 +12702,7 @@
     </row>
     <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B882">
         <v>1</v>
@@ -12729,7 +12716,7 @@
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B883">
         <v>1</v>
@@ -12743,7 +12730,7 @@
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B884">
         <v>1</v>
@@ -12757,7 +12744,7 @@
     </row>
     <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B885">
         <v>1</v>
@@ -12771,7 +12758,7 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B886">
         <v>1</v>
@@ -12785,7 +12772,7 @@
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B887">
         <v>1</v>
@@ -12799,7 +12786,7 @@
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B888">
         <v>1</v>
@@ -12813,7 +12800,7 @@
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B889">
         <v>1</v>
@@ -12827,7 +12814,7 @@
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B890">
         <v>1</v>
@@ -12841,7 +12828,7 @@
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B891">
         <v>1</v>
@@ -12855,7 +12842,7 @@
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B892">
         <v>1</v>
@@ -12869,7 +12856,7 @@
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B893">
         <v>1</v>
@@ -12883,7 +12870,7 @@
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B894">
         <v>1</v>
@@ -12897,7 +12884,7 @@
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B895">
         <v>1</v>
@@ -12911,7 +12898,7 @@
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B896">
         <v>1</v>
@@ -12925,7 +12912,7 @@
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B897">
         <v>1</v>
@@ -12939,7 +12926,7 @@
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B898">
         <v>1</v>
@@ -12953,7 +12940,7 @@
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B899">
         <v>1</v>
@@ -12967,7 +12954,7 @@
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B900">
         <v>1</v>
@@ -12981,7 +12968,7 @@
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B901">
         <v>1</v>
@@ -12995,7 +12982,7 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B902">
         <v>1</v>
@@ -13009,7 +12996,7 @@
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B903">
         <v>1</v>
@@ -13023,7 +13010,7 @@
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B904">
         <v>1</v>
@@ -13037,7 +13024,7 @@
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B905">
         <v>1</v>
@@ -13051,7 +13038,7 @@
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B906">
         <v>1</v>
@@ -13065,7 +13052,7 @@
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B907">
         <v>1</v>
@@ -13079,7 +13066,7 @@
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B908">
         <v>1</v>
@@ -13093,7 +13080,7 @@
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B909">
         <v>1</v>
@@ -13107,7 +13094,7 @@
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B910">
         <v>1</v>
@@ -13121,7 +13108,7 @@
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B911">
         <v>1</v>
@@ -13135,7 +13122,7 @@
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B912">
         <v>1</v>
@@ -13149,7 +13136,7 @@
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B913">
         <v>1</v>
@@ -13163,7 +13150,7 @@
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B914">
         <v>1</v>
@@ -13177,7 +13164,7 @@
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B915">
         <v>1</v>
@@ -13191,7 +13178,7 @@
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B916">
         <v>1</v>
@@ -13205,7 +13192,7 @@
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B917">
         <v>1</v>
@@ -13219,7 +13206,7 @@
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B918">
         <v>1</v>
@@ -13233,7 +13220,7 @@
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B919">
         <v>1</v>
@@ -13247,7 +13234,7 @@
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B920">
         <v>1</v>
@@ -13261,7 +13248,7 @@
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B921">
         <v>1</v>
@@ -13275,7 +13262,7 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B922">
         <v>1</v>
@@ -13289,7 +13276,7 @@
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B923">
         <v>1</v>
@@ -13303,7 +13290,7 @@
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B924">
         <v>1</v>
@@ -13317,7 +13304,7 @@
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B925">
         <v>1</v>
@@ -13331,7 +13318,7 @@
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B926">
         <v>1</v>
@@ -13345,7 +13332,7 @@
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B927">
         <v>1</v>
@@ -13359,7 +13346,7 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B928">
         <v>1</v>
@@ -13373,7 +13360,7 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B929">
         <v>1</v>
@@ -13387,7 +13374,7 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B930">
         <v>1</v>
@@ -13401,7 +13388,7 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B931">
         <v>1</v>
@@ -13415,7 +13402,7 @@
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B932">
         <v>1</v>
@@ -13429,7 +13416,7 @@
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B933">
         <v>1</v>
@@ -13443,7 +13430,7 @@
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B934">
         <v>1</v>
@@ -13457,7 +13444,7 @@
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B935">
         <v>1</v>
@@ -13471,7 +13458,7 @@
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B936">
         <v>1</v>
@@ -13485,7 +13472,7 @@
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B937">
         <v>1</v>
@@ -13499,7 +13486,7 @@
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B938">
         <v>1</v>
@@ -13513,7 +13500,7 @@
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B939">
         <v>1</v>
@@ -13527,7 +13514,7 @@
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B940">
         <v>1</v>
@@ -13541,7 +13528,7 @@
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B941">
         <v>1</v>
@@ -13555,7 +13542,7 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B942">
         <v>1</v>
@@ -13569,7 +13556,7 @@
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B943">
         <v>1</v>
@@ -13583,7 +13570,7 @@
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B944">
         <v>1</v>
@@ -13597,7 +13584,7 @@
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B945">
         <v>1</v>
@@ -13611,7 +13598,7 @@
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B946">
         <v>1</v>
@@ -13625,7 +13612,7 @@
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B947">
         <v>1</v>
@@ -13639,7 +13626,7 @@
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B948">
         <v>1</v>
@@ -13653,7 +13640,7 @@
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B949">
         <v>1</v>
@@ -13667,7 +13654,7 @@
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B950">
         <v>1</v>
@@ -13681,7 +13668,7 @@
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B951">
         <v>1</v>
@@ -13695,7 +13682,7 @@
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B952">
         <v>1</v>
@@ -13709,7 +13696,7 @@
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B953">
         <v>1</v>
@@ -13723,7 +13710,7 @@
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B954">
         <v>1</v>
@@ -13737,7 +13724,7 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B955">
         <v>1</v>
@@ -13751,7 +13738,7 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B956">
         <v>1</v>
@@ -13765,7 +13752,7 @@
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B957">
         <v>1</v>
@@ -13779,7 +13766,7 @@
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B958">
         <v>1</v>
@@ -13793,7 +13780,7 @@
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B959">
         <v>1</v>
@@ -13807,7 +13794,7 @@
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B960">
         <v>1</v>
@@ -13821,7 +13808,7 @@
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B961">
         <v>1</v>
@@ -13835,7 +13822,7 @@
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B962">
         <v>1</v>
@@ -13849,7 +13836,7 @@
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B963">
         <v>1</v>
@@ -13863,7 +13850,7 @@
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B964">
         <v>1</v>
@@ -13877,7 +13864,7 @@
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B965">
         <v>1</v>
@@ -13891,7 +13878,7 @@
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B966">
         <v>1</v>
@@ -13905,7 +13892,7 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B967">
         <v>1</v>
@@ -13919,7 +13906,7 @@
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B968">
         <v>1</v>
@@ -13933,7 +13920,7 @@
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B969">
         <v>1</v>
@@ -13947,7 +13934,7 @@
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B970">
         <v>1</v>
@@ -13961,7 +13948,7 @@
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B971">
         <v>1</v>
@@ -13975,7 +13962,7 @@
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B972">
         <v>1</v>
@@ -13989,7 +13976,7 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B973">
         <v>1</v>
@@ -14003,7 +13990,7 @@
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B974">
         <v>1</v>
@@ -14017,7 +14004,7 @@
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B975">
         <v>1</v>
@@ -14031,7 +14018,7 @@
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B976">
         <v>1</v>
@@ -14045,7 +14032,7 @@
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B977">
         <v>1</v>
@@ -14059,7 +14046,7 @@
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B978">
         <v>1</v>
@@ -14073,7 +14060,7 @@
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B979">
         <v>1</v>
@@ -14087,7 +14074,7 @@
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B980">
         <v>1</v>
@@ -14101,7 +14088,7 @@
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B981">
         <v>1</v>
@@ -14115,7 +14102,7 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B982">
         <v>1</v>
@@ -14129,7 +14116,7 @@
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B983">
         <v>1</v>
@@ -14143,7 +14130,7 @@
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B984">
         <v>1</v>
@@ -14155,25 +14142,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A985">
-        <v>984</v>
-      </c>
-      <c r="B985">
-        <v>1</v>
-      </c>
-      <c r="C985">
-        <v>0</v>
-      </c>
-      <c r="D985">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D985">
-    <sortCondition ref="B2:B985"/>
-    <sortCondition ref="C2:C985"/>
-    <sortCondition ref="D2:D985"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D984">
+    <sortCondition ref="B1:B984"/>
+    <sortCondition ref="C1:C984"/>
+    <sortCondition ref="D1:D984"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
